--- a/1 기능 정의/project05 - 요구사항 정의서 - 현태.xlsx
+++ b/1 기능 정의/project05 - 요구사항 정의서 - 현태.xlsx
@@ -16,7 +16,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>현태</t>
   </si>
@@ -264,6 +264,403 @@
 HJ – P – 029
 HJ – P – 030</t>
   </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 확인 및 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주최한 세미나(행사) 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>참석한 세미나(행사) 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세미나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주최하기</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세미나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가하기</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 참가 신청</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 내용 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 장소 대관 신청</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남기기</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 문의하기</t>
+  </si>
+  <si>
+    <t>세미나(행사) 문의에 답변하기</t>
+  </si>
+  <si>
+    <t>세미나(행사) 관련 문의</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>참석한 세미나(행사) 관련 후기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 관련 후기 남기기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 세미나(행사) 신고</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 가이드 및 FAQ 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리가 계정 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 세미나 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 세미나(행사) 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 가이드 및 FAQ</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 관련 Q&amp;A 등록 및 답변 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이메일, 휴대폰번호,  닉네임, 관심 세미나(행사) 카테고리 등록, 프로필 사진</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호를 이용하여 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 휴대폰번호, 닉네임, 관심 세미나(행사) 카테고리, 프로필 사진 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 세미나(행사) 날짜, 카테고리, 제목, 신청 인원 리스트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주최 세미나(행사) 날짜, 카테고리, 제목, 참가 인원 수 리스트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 등록 – 세미나(행사) 제목, 세미나(행사) 카테고리, 세미나(행사) 내용, 최대 인원수, 참석 비용, 신청 후 미참석 및 기타 제한 사항(참석 조건(나이, 전공 등?))</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 장소 신청 – 원하는 대관 장소, 날짜, 시간, 인원수</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>참석 날짜, 인원수, 좌석 예약, 결제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 세미나(행사)의 내용 및 참석에 관한 문의사항을 세미나(행사) 상세 내용 페이지 아래에 댓글 형식으로 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사)주최 회원은 마이페이지에서 답변 등록 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제의 소지가 있는 세미나(행사)에 관해 신고하기 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>참석했던 세미나(행사)의 내용 관련 후기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-Zone의 서비스 및 방문했던 장소에 관한 후기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 시 등록한 관심 세미나(행사) 카테고리에 세미나(행사)가 등록되면 알림을 받음</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자가 등록한 e-Zone 서비스 이용 가이드 및 FAQ 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자가 등록한 e-Zone 서비스 관련 공지사항 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-Zone 서비스 이용에 관한 문의를 등록 후, 관리자가 답변 등록하면 확인 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 등록, 수정 및 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 ID, 비밀번호, 이름, 사번</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 계정 조회 및 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 닉네임, 회원별 주최 세미나(행사), 회원별 참석 세미나(행사), 이용 제한 또는 탈퇴 처리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면에 노출 되는 장소 관련 정보 변경 – 이미지, 제목, 장소 특징(규모 및 수용 가능 인원)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너(?) – 이미지, 제목, 링크 주소</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 세미나(행사) 등록???? (또는 날짜, 조회수 등을 기준으로 자동으로 선정 되어 노출?)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 날짜, 세미나(행사) 제목, 주최 날짜, 대관 신청 장소 조회 – 문제 발생 시 등록 세미나(행사) 삭제
+등록된 세미나(행사)에 참가 신청한 회원들 목록 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고글 날짜, 제목, 내용 확인, 처리 방법</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-Zone 서비스 이용 가이드 및 FAQ 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판에 등록된 질문글에 답변 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,6 +748,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -378,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -596,11 +1019,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,19 +1113,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,9 +1127,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -699,9 +1143,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,25 +1150,104 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG992"/>
+  <dimension ref="A1:XFD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1005,22 +1525,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1042,20 +1562,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1203,13 +1723,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1244,29 +1764,29 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
         <v>43854</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="20">
         <v>43858</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="20">
         <v>43859</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="20">
         <v>43860</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="20">
         <v>43861</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1289,19 +1809,27 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="A9" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1330,19 +1858,23 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1371,20 +1903,26 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="27">
+      <c r="A11" s="49"/>
+      <c r="B11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="18">
         <v>2</v>
       </c>
       <c r="O11" s="15" t="s">
@@ -1412,20 +1950,24 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="27">
+      <c r="A12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="18">
         <v>1</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1453,20 +1995,24 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="27"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
@@ -1488,20 +2034,26 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="27"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
@@ -1523,20 +2075,24 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="27">
+      <c r="A15" s="49"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="18">
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -1564,20 +2120,26 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="27">
+      <c r="A16" s="49"/>
+      <c r="B16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="18">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
@@ -1604,21 +2166,27 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="27">
+    <row r="17" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="18">
         <v>1</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -1645,21 +2213,25 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="27">
+    <row r="18" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="18">
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
@@ -1686,21 +2258,27 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="27">
+    <row r="19" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="18">
         <v>1</v>
       </c>
       <c r="O19" s="10" t="s">
@@ -1727,21 +2305,27 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="27">
+    <row r="20" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="18">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
@@ -1768,21 +2352,25 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="27">
+    <row r="21" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="18">
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
@@ -1809,29 +2397,29 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1850,25 +2438,35 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="27">
-        <v>3</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+    <row r="23" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1887,29 +2485,29 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="18">
+        <v>3</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1928,27 +2526,33 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="27">
-        <v>3</v>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="18">
+        <v>1</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1967,27 +2571,35 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="27">
+    <row r="26" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A26" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="18">
         <v>3</v>
       </c>
-      <c r="O26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="14"/>
+      <c r="O26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2006,27 +2618,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="27">
+    <row r="27" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="18">
         <v>3</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="16"/>
+      <c r="O27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="14"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2045,25 +2663,31 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="27">
+    <row r="28" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="18">
         <v>3</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="1"/>
@@ -2084,24 +2708,30 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="27">
+    <row r="29" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="18">
         <v>3</v>
       </c>
-      <c r="O29" s="16"/>
+      <c r="O29" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2121,17 +2751,27 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+    <row r="30" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="16"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2150,17 +2790,29 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+    <row r="31" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="16"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2179,20 +2831,29 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+    <row r="32" spans="1:33 16384:16384" ht="28.8" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="16"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2210,24 +2871,31 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="XFD32" s="23"/>
+    </row>
+    <row r="33" spans="1:33" ht="28.8" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="16"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2246,21 +2914,27 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+    <row r="34" spans="1:33" ht="28.8" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="16"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2279,25 +2953,29 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+    <row r="35" spans="1:33" ht="28.8" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="18">
+        <v>3</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2319,19 +2997,11 @@
     <row r="36" spans="1:33" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2356,19 +3026,11 @@
     <row r="37" spans="1:33" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2400,11 +3062,6 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2437,11 +3094,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2474,9 +3129,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="17"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2509,9 +3162,11 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2544,9 +3199,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2579,9 +3236,11 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2614,9 +3273,11 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2649,9 +3310,11 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -9184,12 +9847,216 @@
       <c r="AF231" s="1"/>
       <c r="AG231" s="1"/>
     </row>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
     <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
@@ -9945,11 +10812,27 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P29"/>
-  <mergeCells count="2">
+  <autoFilter ref="A7:P35"/>
+  <mergeCells count="12">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A9:A25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
